--- a/dataset/Video training data.xlsx
+++ b/dataset/Video training data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Refaee\Desktop\New folder\video\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Refaee\Documents\GitHub\ITU-AI-ML-IN-5G-CHALLENGE-SPbSUT\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6716882-2A77-4CE4-BA2F-00B326B12771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0378B469-34E7-40CD-8A7D-FCEF945E5D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,8 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,499 +353,502 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" activeCellId="3" sqref="B1:B1048576 A1:A1048576 C1:C1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>2231</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>120</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>2234</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>180</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>2237</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>60</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>2246</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>635</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>2258</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>578246</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
         <v>2261</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>857524</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
         <v>2264</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1340694</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
         <v>2270</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>521871</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
         <v>2273</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>640391</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>2276</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>862332</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
         <v>2279</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>632106</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
         <v>2282</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>621681</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
         <v>2294</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>720578</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
         <v>2297</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>775298</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
         <v>2300</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>588633</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
         <v>2303</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>685365</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
         <v>2306</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>711783</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
         <v>2309</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>580836</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
         <v>2315</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>8912</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
         <v>2318</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>360</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
         <v>2321</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>240</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
         <v>2324</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>252</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
         <v>2330</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>667</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
         <v>2333</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>60</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
         <v>2336</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>120</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
         <v>2339</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>433</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
         <v>2345</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>240</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
         <v>2354</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>60</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
         <v>2357</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>180</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
         <v>2360</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1297</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
         <v>2369</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>2102</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
         <v>2372</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>180</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
         <v>2378</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>947</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
         <v>2381</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>300</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
         <v>2387</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>755</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>8</v>
       </c>
     </row>
